--- a/downloads/已上傳的檔案們.xlsx
+++ b/downloads/已上傳的檔案們.xlsx
@@ -11,36 +11,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+  <si>
+    <t>檔案路徑</t>
+  </si>
+  <si>
+    <t>群組名稱</t>
+  </si>
+  <si>
+    <t>上傳時間</t>
+  </si>
   <si>
     <t>上傳者</t>
   </si>
   <si>
-    <t>上傳時間</t>
-  </si>
-  <si>
-    <t>檔案路徑</t>
-  </si>
-  <si>
-    <t>群組名稱</t>
+    <t>開啟檔案</t>
+  </si>
+  <si>
+    <t>備忘錄</t>
+  </si>
+  <si>
+    <t>2024-11-05 15:06:38</t>
   </si>
   <si>
     <t>黃婷婉</t>
   </si>
   <si>
-    <t>2024-11-04 18:03:54</t>
-  </si>
-  <si>
-    <t>開啟檔案</t>
-  </si>
-  <si>
-    <t>備忘錄</t>
-  </si>
-  <si>
-    <t>2024-11-04 18:03:55</t>
-  </si>
-  <si>
-    <t>2024-11-04 18:03:59</t>
+    <t>2024-11-05 15:06:37</t>
+  </si>
+  <si>
+    <t>2024-11-05 15:06:41</t>
+  </si>
+  <si>
+    <t>2024-11-05 15:06:46</t>
   </si>
 </sst>
 </file>
@@ -417,13 +420,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,10 +461,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -473,22 +475,52 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/downloads/已上傳的檔案們.xlsx
+++ b/downloads/已上傳的檔案們.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>檔案路徑</t>
   </si>
@@ -31,19 +31,19 @@
     <t>備忘錄</t>
   </si>
   <si>
-    <t>2024-11-05 15:06:38</t>
+    <t>2024-11-12 15:39:18</t>
   </si>
   <si>
     <t>黃婷婉</t>
   </si>
   <si>
-    <t>2024-11-05 15:06:37</t>
-  </si>
-  <si>
-    <t>2024-11-05 15:06:41</t>
-  </si>
-  <si>
-    <t>2024-11-05 15:06:46</t>
+    <t>2024-11-12 15:39:19</t>
+  </si>
+  <si>
+    <t>測試群組</t>
+  </si>
+  <si>
+    <t>2024-11-12 15:40:54</t>
   </si>
 </sst>
 </file>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
@@ -464,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -478,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -506,9 +506,23 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -519,6 +533,7 @@
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/downloads/已上傳的檔案們.xlsx
+++ b/downloads/已上傳的檔案們.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>檔案路徑</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>2024-11-12 15:40:54</t>
+  </si>
+  <si>
+    <t>2024-11-13 11:39:28</t>
+  </si>
+  <si>
+    <t>2024-11-13 13:57:06</t>
+  </si>
+  <si>
+    <t>2024-11-13 14:10:38</t>
   </si>
 </sst>
 </file>
@@ -420,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -526,6 +535,48 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
@@ -534,6 +585,9 @@
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
